--- a/excel/target_code/4.xlsx
+++ b/excel/target_code/4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>code</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
   <si>
     <t>doc2vecは単語を分散表現されたベクトルに変換するためのプログラムです。単語ベクトルの次元を圧縮することで様々な応用が考えられます。</t>
@@ -422,11 +428,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,11 +445,11 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
